--- a/data/2012 IP MASTERLIST.xlsx
+++ b/data/2012 IP MASTERLIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FED58F-7582-491F-9987-554EAD4C86E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAD7CDF-F858-4A88-B567-1342FBF16CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>IPRO file number</t>
   </si>
@@ -165,9 +165,6 @@
     <t>2012-Br-01</t>
   </si>
   <si>
-    <t>Leoncia L. Tandang and Araceli G. Ladilad</t>
-  </si>
-  <si>
     <t>978-971-006-059-7</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>The Process of Making Quick Melt Cookies Enriched With Vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">Esnara, Cristine B., Salda, Violeta B. </t>
-  </si>
-  <si>
     <t>Public Domain</t>
   </si>
   <si>
@@ -273,36 +267,24 @@
     <t>Process of Making Bread "Pandesal" Enriched with Vegetables</t>
   </si>
   <si>
-    <t>Esnara, Cristine B., Salda, Violeta B., Bayating, Jofrey</t>
-  </si>
-  <si>
     <t>2012-D-06</t>
   </si>
   <si>
     <t>Process of Making Udon Noodles Enriched with Vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">Esnara, Cristine B., Salda, Violeta B., Anniban, Estela B. </t>
-  </si>
-  <si>
     <t>2012-D-07</t>
   </si>
   <si>
     <t>Trichoderma Koningi Strain Ka as Biofertilizer and for Bioremediation</t>
   </si>
   <si>
-    <t xml:space="preserve">Nagpala, Asuncion L. </t>
-  </si>
-  <si>
     <t>2012-D-08</t>
   </si>
   <si>
     <t xml:space="preserve">A Process of making Muffins Enriched with Vegetable </t>
   </si>
   <si>
-    <t>Esnara, Cristine B., Salda, Violeta B., Bayating, Jofrey, Banas, Marilou B.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Composition of Making Loaf Bread Enriched with Vegetables </t>
   </si>
   <si>
@@ -348,18 +330,12 @@
     <t xml:space="preserve">Composition of Muffins Enriched with Vegetables </t>
   </si>
   <si>
-    <t xml:space="preserve">Esnara, Cristine B., Salda, Violeta B., Bayating, Jofrey J., Bawas, Marelou B. </t>
-  </si>
-  <si>
     <t>2012-D-17</t>
   </si>
   <si>
     <t>Composition of Making Bread (Pandesal) Enriched with Vegetables</t>
   </si>
   <si>
-    <t>Esnara, Cristine B., Salda, Violeta B., Bayating, Jofrey J.</t>
-  </si>
-  <si>
     <t>Client Type</t>
   </si>
   <si>
@@ -367,6 +343,18 @@
   </si>
   <si>
     <t>2012-D-09</t>
+  </si>
+  <si>
+    <t>Cristine B. Esnara, Violeta B. Salda</t>
+  </si>
+  <si>
+    <t>Cristine B. Esnara, Violeta B. Salda, Jofrey Bayating</t>
+  </si>
+  <si>
+    <t>Cristine B. Esnara, Violeta B. Salda, Estela B. Anniban</t>
+  </si>
+  <si>
+    <t>Cristine B. Esnara, Violeta B. Salda, Jofrey Bayating, Marilou B. Banas</t>
   </si>
 </sst>
 </file>
@@ -617,13 +605,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +837,7 @@
   </sheetPr>
   <dimension ref="A1:J881"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
@@ -870,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -3771,9 +3759,9 @@
   </sheetPr>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3793,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -3829,7 +3817,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -3838,7 +3826,7 @@
         <v>41159</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="26">
         <v>41159</v>
@@ -3846,17 +3834,17 @@
     </row>
     <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
@@ -3865,22 +3853,22 @@
         <v>41122</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="31">
         <v>41159</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>15</v>
@@ -3892,7 +3880,7 @@
         <v>41091</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="31">
         <v>41159</v>
@@ -3900,14 +3888,14 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>31</v>
@@ -3919,7 +3907,7 @@
         <v>41091</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="32">
         <v>41159</v>
@@ -3927,12 +3915,14 @@
     </row>
     <row r="6" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>23</v>
@@ -3944,7 +3934,7 @@
         <v>41091</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="32">
         <v>41159</v>
@@ -4251,14 +4241,14 @@
       <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
     </row>
     <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
@@ -4481,14 +4471,14 @@
       <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="27"/>
@@ -4632,8 +4622,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="73" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4648,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>3</v>
@@ -4663,37 +4653,37 @@
         <v>4</v>
       </c>
       <c r="G1" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="K1" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="21">
         <v>22012000105</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="40">
         <v>40911</v>
@@ -4701,29 +4691,29 @@
       <c r="H2" s="22"/>
       <c r="I2" s="23"/>
       <c r="J2" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="21">
         <v>22012000106</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="40">
         <v>40911</v>
@@ -4731,29 +4721,29 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="44">
+        <v>76</v>
+      </c>
+      <c r="D4" s="42">
         <v>221012000107</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="40">
         <v>40911</v>
@@ -4761,29 +4751,29 @@
       <c r="H4" s="22"/>
       <c r="I4" s="23"/>
       <c r="J4" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="21">
         <v>22012000108</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="40">
         <v>40911</v>
@@ -4791,29 +4781,29 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="21">
         <v>22012000109</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="40">
         <v>40911</v>
@@ -4821,29 +4811,29 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="21">
         <v>22012000110</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="40">
         <v>40911</v>
@@ -4851,29 +4841,29 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="21">
         <v>22012000111</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="40">
         <v>40911</v>
@@ -4881,29 +4871,29 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D9" s="21">
         <v>22012000112</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="40">
         <v>40911</v>
@@ -4911,29 +4901,29 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D10" s="21">
         <v>22012000113</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="40">
         <v>40911</v>
@@ -4941,29 +4931,29 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D11" s="21">
         <v>22012000114</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="40">
         <v>40911</v>
@@ -4971,29 +4961,29 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D12" s="21">
         <v>22012000115</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" s="40">
         <v>40911</v>
@@ -5001,29 +4991,29 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
       <c r="J12" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" s="21">
         <v>22012000116</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="40">
         <v>40911</v>
@@ -5031,29 +5021,29 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D14" s="21">
         <v>22012000117</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="40">
         <v>40911</v>
@@ -5061,29 +5051,29 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" s="21">
         <v>22012000118</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="40">
         <v>40911</v>
@@ -5091,29 +5081,29 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D16" s="21">
         <v>22012000119</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="40">
         <v>40911</v>
@@ -5121,29 +5111,29 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" s="21">
         <v>22012000120</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="40">
         <v>40911</v>
@@ -5151,29 +5141,29 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D18" s="21">
         <v>22012000121</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="40">
         <v>40911</v>
@@ -5181,10 +5171,10 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="14"/>
     </row>
